--- a/ig/nr-update-main/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/ig/nr-update-main/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T13:38:38+00:00</t>
+    <t>2023-10-02T13:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
